--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -178,12 +178,98 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：156.6y/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>106.2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y
+控制：206.6y/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>44</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y
+防辅：148.1y/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>93.2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>天数</t>
   </si>
@@ -232,6 +318,19 @@
 觉醒券：111
 钻石：6813
 区评分排名：57
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2080025
+觉醒券：128
+钻石：6257
+区评分排名：59
 战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -785,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,15 +933,20 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>103</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -189,78 +189,75 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+          <t>阵容：sp虎+火舞+海女+鬼魅+海马+绛珠
 悬赏伤害：
-强攻：215.6y/503.6y
-敏攻：156.6y/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>106.2</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>y
-控制：206.6y/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>44</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>y
-防辅：148.1y/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>93.2</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>y</t>
+强攻：313.3y/503.6y
+敏攻：156.6y/106.2y
+控制：400.2y/44y
+防辅：174.2y/93.2y
+sp虎心愿136抽：4金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：sp虎+火舞+海女+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：313.3y/503.6y
+敏攻：156.6y/106.2y
+控制：400.2y/44y
+防辅：174.2y/93.2y
+SP虎心愿20抽：1sp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：sp虎+唐昊+火舞+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：313.3y/503.6y
+敏攻：156.6y/1567.8y
+控制：400.2y/476.1y
+防辅：174.2y/1041.9y
+大猫心愿20抽：1金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：sp虎+唐昊+火舞+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：313.3y/503.6y
+敏攻：156.6y/1567.8y
+控制：400.2y/476.1y
+防辅：174.2y/1041.9y</t>
         </r>
       </text>
     </comment>
@@ -269,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>天数</t>
   </si>
@@ -331,6 +328,33 @@
 觉醒券：128
 钻石：6257
 区评分排名：59
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2089355
+觉醒券：8
+钻石：5681
+区评分排名：59
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2193393
+觉醒券：13
+钻石：4973
+区评分排名：59
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2203495
+觉醒券：7
+钻石：4376
+区评分排名：60
 战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -884,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -899,7 +923,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -928,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -940,90 +964,93 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>104</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>105</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>106</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>107</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>108</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>109</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -254,9 +254,9 @@
           </rPr>
           <t>阵容：sp虎+唐昊+火舞+荣荣+海马+奥斯卡
 悬赏伤害：
-强攻：313.3y/503.6y
-敏攻：156.6y/1567.8y
-控制：400.2y/476.1y
+强攻：4970.6y/503.6y
+敏攻：6102.2y/1567.8y
+控制：1033.3y/476.1y
 防辅：174.2y/1041.9y</t>
         </r>
       </text>
@@ -301,15 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：57
 战力：2060632
 觉醒券：111
@@ -353,6 +344,15 @@
     <t>等级：57
 战力：2203495
 觉醒券：7
+钻石：4376
+区评分排名：60
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：58
+战力：2243141
+觉醒券：27
 钻石：4376
 区评分排名：60
 战区排行：---</t>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -945,7 +945,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="F2" s="4" t="s">
@@ -957,11 +957,11 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -969,7 +969,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -978,7 +978,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -987,7 +987,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -996,7 +996,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2"/>
     </row>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
-    <sheet name="101-110" sheetId="3" r:id="rId2"/>
+    <sheet name="PK" sheetId="4" r:id="rId2"/>
+    <sheet name="101-110" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -261,12 +262,73 @@
         </r>
       </text>
     </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/
+敏攻：1397.1y/572.8y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>天数</t>
   </si>
@@ -356,6 +418,115 @@
 钻石：4376
 区评分排名：60
 战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏攻/控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尘心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佘龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥斯卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火毒肉队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老毒物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古榕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛皋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子/尘心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比比东/水冰儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古榕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2258849
+觉醒券：44
+钻石：3732
+区评分排名：60
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2310023
+觉醒券：55
+钻石：2853
+区评分排名：60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,11 +1076,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="7" width="15.125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,25 +1277,31 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>107</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>108</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>109</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -62,13 +62,98 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：暗三+京灵+海女+风致+海马+绛珠
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
 强攻：215.6y/503.6y
-敏攻：156.6y/106.2y
-控制：206.6y/44y
-防辅：148.1y/93.2y
-sp幽冥白虎400抽保底：1sp、14金
+敏攻：156.6y/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>106.2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y
+控制：206.6y/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>44</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y
+防辅：148.1y/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>93.2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/
+敏攻：1397.1y/572.8y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
 </t>
         </r>
       </text>
@@ -94,92 +179,6 @@
       </text>
     </comment>
     <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
-悬赏伤害：
-强攻：215.6y/503.6y
-敏攻：156.6y/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>106.2</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>y
-控制：206.6y/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>44</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>y
-防辅：148.1y/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>93.2</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>y</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +302,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/
+敏攻：1397.1y/572.8y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>天数</t>
   </si>
@@ -360,15 +400,6 @@
   </si>
   <si>
     <t>结尾日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：57
-战力：2060632
-觉醒券：111
-钻石：6813
-区评分排名：57
-战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,6 +557,23 @@
 战力：2310023
 觉醒券：55
 钻石：2853
+区评分排名：60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2365180
+觉醒券：81
+钻石：1206
 区评分排名：60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1092,86 +1140,86 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1185,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1222,9 +1270,11 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1238,7 +1288,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1273,15 +1323,15 @@
         <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>107</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2"/>
@@ -1291,16 +1341,16 @@
         <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>109</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -1308,7 +1358,6 @@
       <c r="A11" s="1">
         <v>110</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -199,6 +199,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/
+敏攻：1397.1y/572.8y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -272,12 +293,12 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+          <t xml:space="preserve">阵容：sp虎+唐昊+火舞+荣荣+海马+奥斯卡
 悬赏伤害：
-强攻：4057.3y/
-敏攻：1397.1y/572.8y
-控制：1545.8y/348.1y
-防辅：903.7y/680.8y
+强攻：4970.6y/503.6y
+敏攻：6102.2y/1567.8y
+控制：1033.3y/476.1y
+防辅：174.2y/1041.9y
 </t>
         </r>
       </text>
@@ -293,12 +314,12 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：
+          <t>阵容：sp虎+唐昊+火舞+荣荣+海马+奥斯卡
 悬赏伤害：
-强攻：
-敏攻：
-控制：
-防辅：</t>
+强攻：4970.6y/503.6y
+敏攻：6102.2y/1567.8y
+控制：1033.3y/476.1y
+防辅：174.2y/1041.9y</t>
         </r>
       </text>
     </comment>
@@ -313,12 +334,12 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：
+          <t>阵容：sp虎+唐昊+火舞+荣荣+海马+奥斯卡
 悬赏伤害：
-强攻：
-敏攻：
-控制：
-防辅：</t>
+强攻：4970.6y/503.6y
+敏攻：6102.2y/1567.8y
+控制：1033.3y/476.1y
+防辅：174.2y/1041.9y</t>
         </r>
       </text>
     </comment>
@@ -333,13 +354,13 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+          <t>阵容：sp虎+唐昊+火舞+荣荣+海马+奥斯卡
 悬赏伤害：
-强攻：4057.3y/
-敏攻：1397.1y/572.8y
-控制：1545.8y/348.1y
-防辅：903.7y/680.8y
-</t>
+强攻：4970.6y/503.6y
+敏攻：6102.2y/1567.8y
+控制：1033.3y/476.1y
+防辅：174.2y/1041.9y
+SP虎心愿80抽：2金</t>
         </r>
       </text>
     </comment>
@@ -354,12 +375,13 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：
+          <t xml:space="preserve">阵容：sp虎+唐昊+火舞+荣荣+海马+奥斯卡
 悬赏伤害：
-强攻：
-敏攻：
-控制：
-防辅：</t>
+强攻：4970.6y/503.6y
+敏攻：6102.2y/1567.8y
+控制：1033.3y/476.1y
+防辅：174.2y/1041.9y
+</t>
         </r>
       </text>
     </comment>
@@ -368,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>天数</t>
   </si>
@@ -544,23 +566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：57
-战力：2258849
-觉醒券：44
-钻石：3732
-区评分排名：60
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：57
-战力：2310023
-觉醒券：55
-钻石：2853
-区评分排名：60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：
 战力：
 觉醒券：
@@ -575,6 +580,59 @@
 觉醒券：81
 钻石：1206
 区评分排名：60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：58
+战力：2258849
+觉醒券：44
+钻石：3732
+区评分排名：60
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：58
+战力：2310023
+觉醒券：55
+钻石：2853
+区评分排名：60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2453788
+觉醒券：4
+钻石：2192
+区评分排名：48
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2626524
+觉醒券：436
+钻石：850
+区评分排名：58
+战区排行：193</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,7 +1292,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1273,10 +1331,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1286,7 +1344,9 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +1383,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -1332,7 +1392,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -1341,7 +1401,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -1350,13 +1410,16 @@
         <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>110</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="2"/>
     </row>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -10,6 +10,7 @@
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="PK" sheetId="4" r:id="rId2"/>
     <sheet name="101-110" sheetId="3" r:id="rId3"/>
+    <sheet name="111-120" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -241,6 +242,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/
+敏攻：1397.1y/572.8y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -389,8 +411,59 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+唐昊+火舞+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：6102.2y/1567.8y
+控制：1033.3y/476.1y
+防辅：174.2y/1041.9y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>天数</t>
   </si>
@@ -618,21 +691,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：57
 战力：2626524
 觉醒券：436
 钻石：850
 区评分排名：58
 战区排行：193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2718163
+觉醒券：444
+钻石：931
+区评分排名：53
+战区排行：184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2468989
+觉醒券：5
+钻石：2415
+区评分排名：48
+战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -703,6 +785,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1331,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>40</v>
@@ -1345,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1358,7 +1443,9 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -1419,9 +1506,218 @@
         <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44891</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="15.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2"/>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>112</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>113</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>114</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>115</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>116</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>117</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>118</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>119</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>120</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
           </rPr>
           <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
-强攻：4057.3y/
+强攻：4057.3y/3160.8
 敏攻：1397.1y/572.8y
 控制：1545.8y/348.1y
 防辅：903.7y/680.8y
@@ -281,6 +281,27 @@
 控制：400.2y/476.1y
 防辅：174.2y/1041.9y
 大猫心愿20抽：1金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/3160.8
+敏攻：1397.1y/572.8y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
         </r>
       </text>
     </comment>
@@ -428,13 +449,14 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：sp虎+唐昊+火舞+荣荣+海马+奥斯卡
+          <t>阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
 悬赏伤害：
 强攻：4970.6y/503.6y
-敏攻：6102.2y/1567.8y
-控制：1033.3y/476.1y
-防辅：174.2y/1041.9y
-</t>
+敏攻：6102.2y/2949.2y
+控制：1033.3y/2773.5y
+防辅：174.2y/4660.3y
+巅峰拿了30抽
+SP虎心愿30抽：1SP1金</t>
         </r>
       </text>
     </comment>
@@ -455,6 +477,27 @@
 敏攻：
 控制：
 防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：6102.2y/2949.2y
+控制：1033.3y/2773.5y
+防辅：174.2y/4660.3y
+</t>
         </r>
       </text>
     </comment>
@@ -463,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>天数</t>
   </si>
@@ -715,6 +758,24 @@
 钻石：2415
 区评分排名：48
 战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2729910
+觉醒券：449
+钻石：1006
+区评分排名：53
+战区排行：184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2734070
+觉醒券：5
+钻石：2053
+区评分排名：43
+战区排行：170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1376,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1444,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1454,7 +1515,9 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -1609,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1646,18 +1709,20 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C2"/>
       <c r="F2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>112</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C3"/>
       <c r="E3" s="2" t="s">
         <v>7</v>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -298,7 +298,7 @@
           <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
 强攻：4057.3y/3160.8
-敏攻：1397.1y/572.8y
+敏攻：1457.1y/572.8y
 控制：1545.8y/348.1y
 防辅：903.7y/680.8y
 </t>
@@ -322,6 +322,27 @@
 敏攻：6102.2y/1567.8y
 控制：1033.3y/476.1y
 防辅：174.2y/1041.9y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/3160.8
+敏攻：1457.1y/572.8y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
         </r>
       </text>
     </comment>
@@ -494,9 +515,30 @@
           <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
 悬赏伤害：
 强攻：4970.6y/503.6y
-敏攻：6102.2y/2949.2y
-控制：1033.3y/2773.5y
-防辅：174.2y/4660.3y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
 </t>
         </r>
       </text>
@@ -506,7 +548,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>天数</t>
   </si>
@@ -776,6 +818,42 @@
 钻石：2053
 区评分排名：43
 战区排行：170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2748838
+觉醒券：458
+钻石：1173
+区评分排名：53
+战区排行：183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2749682
+觉醒券：10
+钻石：2078
+区评分排名：43
+战区排行：170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1437,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1516,7 +1594,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1526,7 +1604,9 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -1673,7 +1753,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1713,7 +1793,7 @@
       </c>
       <c r="C2"/>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1721,18 +1801,20 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C3"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>113</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -367,6 +367,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/9596y
+敏攻：1457.1y/1174.6y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
@@ -387,6 +408,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/9596y
+敏攻：1457.1y/1174.6y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -404,6 +446,27 @@
 敏攻：6102.2y/1567.8y
 控制：1033.3y/476.1y
 防辅：174.2y/1041.9y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/9596y
+敏攻：1457.1y/1174.6y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
         </r>
       </text>
     </comment>
@@ -543,12 +606,75 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>天数</t>
   </si>
@@ -854,6 +980,60 @@
 钻石：
 区评分排名：
 战区排行：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2754227
+觉醒券：11
+钻石：2174
+区评分排名：43
+战区排行：171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2754559
+觉醒券：458
+钻石：1333
+区评分排名：53
+战区排行：183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：58
+战力：2791670
+觉醒券：465
+钻石：1757
+区评分排名：53
+战区排行：181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2755148
+觉醒券：20
+钻石：2920
+区评分排名：43
+战区排行：172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2765678
+觉醒券：22
+钻石：3405
+区评分排名：43
+战区排行：173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：58
+战力：2807867
+觉醒券：471
+钻石：2712
+区评分排名：53
+战区排行：180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1515,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1605,7 +1785,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1615,25 +1795,31 @@
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -1752,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1813,29 +1999,35 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>114</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>115</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>116</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -462,7 +462,7 @@
           </rPr>
           <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
-强攻：4057.3y/9596y
+强攻：4608.8y/9596y
 敏攻：1457.1y/1174.6y
 控制：1545.8y/348.1y
 防辅：903.7y/680.8y
@@ -488,6 +488,27 @@
 控制：1033.3y/476.1y
 防辅：174.2y/1041.9y
 SP虎心愿80抽：2金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4608.8y/9596y
+敏攻：1457.1y/1174.6y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
         </r>
       </text>
     </comment>
@@ -669,12 +690,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>天数</t>
   </si>
@@ -1033,6 +1075,24 @@
 觉醒券：471
 钻石：2712
 区评分排名：53
+战区排行：180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2770561
+觉醒券：24
+钻石：4084
+区评分排名：44
+战区排行：175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：58
+战力：2832530
+觉醒券：471
+钻石：2807
+区评分排名：54
 战区排行：180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1818,7 +1878,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1828,7 +1888,9 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
@@ -1938,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2026,15 +2088,17 @@
         <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>117</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -533,6 +533,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4608.8y/9596y
+敏攻：1457.1y/1174.6y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -711,12 +732,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>天数</t>
   </si>
@@ -1094,6 +1136,24 @@
 钻石：2807
 区评分排名：54
 战区排行：180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2944721
+觉醒券：473
+钻石：2203
+区评分排名：51
+战区排行：172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：2784761
+觉醒券：27
+钻石：2934
+区评分排名：44
+战区排行：176</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1755,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1889,7 +1949,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1899,7 +1959,9 @@
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -2000,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2097,15 +2159,17 @@
         <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>118</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
 悬赏伤害：
 强攻：4608.8y/9596y
 敏攻：1457.1y/1174.6y
-控制：1545.8y/348.1y
+控制：1545.8y/575.3y
 防辅：903.7y/680.8y
 </t>
         </r>
@@ -575,6 +575,47 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4608.8y/9596y
+敏攻：1457.1y/1174.6y
+控制：1545.8y/575.3y
+防辅：903.7y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
 悬赏伤害：
 强攻：4970.6y/503.6y
@@ -586,27 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>阵容：
-悬赏伤害：
-强攻：
-敏攻：
-控制：
-防辅：</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -690,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -732,7 +753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -745,10 +766,10 @@
           </rPr>
           <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
 悬赏伤害：
-强攻：4970.6y/503.6y
-敏攻：1.8wY/2949.2y
+强攻：4970.6y/709.6y
+敏攻：1.8wY/4434.1y
 控制：4919.5y/2773.5y
-防辅：3793.0y/4660.3y
+防辅：3793.0y/9401.5y
 </t>
         </r>
       </text>
@@ -758,7 +779,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>天数</t>
   </si>
@@ -1154,6 +1175,15 @@
 钻石：2934
 区评分排名：44
 战区排行：176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：3311820
+觉醒券：484
+钻石：2363
+区评分排名：45
+战区排行：145</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1815,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1960,7 +1990,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -2060,215 +2090,218 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="15.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="12" max="12" width="15.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2"/>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>112</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3"/>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>113</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4"/>
+      <c r="L4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>114</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5"/>
+      <c r="L5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>115</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6"/>
+      <c r="L6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>116</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7"/>
+      <c r="L7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>117</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8"/>
+      <c r="L8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>118</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9"/>
+      <c r="L9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>119</v>
       </c>
       <c r="B10"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>120</v>
       </c>
       <c r="B11"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
     </row>
   </sheetData>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -575,10 +575,10 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
 强攻：4608.8y/9596y
-敏攻：1457.1y/1174.6y
+敏攻：3460.5y/1174.6y
 控制：1545.8y/575.3y
 防辅：903.7y/680.8y
 </t>
@@ -627,6 +627,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4608.8y/9596y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/575.3y
+防辅：903.7y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -779,7 +800,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>天数</t>
   </si>
@@ -955,6 +976,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等级：59
+战力：2365180
+觉醒券：81
+钻石：1206
+区评分排名：60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：58
+战力：2258849
+觉醒券：44
+钻石：3732
+区评分排名：60
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：58
+战力：2310023
+觉醒券：55
+钻石：2853
+区评分排名：60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>等级：
 战力：
 觉醒券：
@@ -965,40 +1011,6 @@
   </si>
   <si>
     <t>等级：59
-战力：2365180
-觉醒券：81
-钻石：1206
-区评分排名：60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：58
-战力：2258849
-觉醒券：44
-钻石：3732
-区评分排名：60
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：58
-战力：2310023
-觉醒券：55
-钻石：2853
-区评分排名：60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：59
 战力：2453788
 觉醒券：4
 钻石：2192
@@ -1183,6 +1195,15 @@
 觉醒券：484
 钻石：2363
 区评分排名：45
+战区排行：145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：3401546
+觉醒券：488
+钻石：2539
+区评分排名：46
 战区排行：145</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1845,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1885,10 +1906,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1899,7 +1920,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1913,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1924,7 +1945,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1935,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1943,10 +1964,10 @@
         <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1954,10 +1975,10 @@
         <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1965,10 +1986,10 @@
         <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1976,10 +1997,10 @@
         <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1987,10 +2008,10 @@
         <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -2092,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2130,25 +2151,27 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>112</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
@@ -2157,7 +2180,7 @@
       </c>
       <c r="B4"/>
       <c r="L4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
@@ -2166,7 +2189,7 @@
       </c>
       <c r="B5"/>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.15">
@@ -2175,7 +2198,7 @@
       </c>
       <c r="B6"/>
       <c r="L6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
@@ -2184,7 +2207,7 @@
       </c>
       <c r="B7"/>
       <c r="L7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="81" x14ac:dyDescent="0.15">
@@ -2193,7 +2216,7 @@
       </c>
       <c r="B8"/>
       <c r="L8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
@@ -2202,7 +2225,7 @@
       </c>
       <c r="B9"/>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -669,6 +669,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4608.8y/9596y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -690,6 +711,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4608.8y/9596y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -800,7 +842,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>天数</t>
   </si>
@@ -1205,6 +1247,33 @@
 钻石：2539
 区评分排名：46
 战区排行：145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：3414173
+觉醒券：501
+钻石：2695
+区评分排名：45
+战区排行：144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：3688846
+觉醒券：503
+钻石：2730
+区评分排名：39
+战区排行：131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2165,7 +2234,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -2178,7 +2247,9 @@
       <c r="A4" s="1">
         <v>113</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>50</v>
       </c>
@@ -2187,7 +2258,9 @@
       <c r="A5" s="1">
         <v>114</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>53</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -753,6 +753,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4608.8y/9596y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
@@ -842,7 +863,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>天数</t>
   </si>
@@ -1268,12 +1289,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：
-战区排行：</t>
+    <t>等级：59
+战力：3700286
+觉醒券：505
+钻石：3174
+区评分排名：39
+战区排行：131</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2182,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2269,7 +2290,9 @@
       <c r="A6" s="1">
         <v>115</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -764,13 +764,15 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
-悬赏伤害：
-强攻：4608.8y/9596y
+          <t>阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：8339.2y/9596y
 敏攻：3460.5y/1174.6y
 控制：1545.8y/690.8y
 防辅：903.7y/815.5y
-</t>
+烈阳斗罗150抽：5金
+小白、比比东、古榕、唐烈、火舞
+ssr箱子：邪月、2阿银</t>
         </r>
       </text>
     </comment>
@@ -795,6 +797,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：8339.2y/9596y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -863,7 +886,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>天数</t>
   </si>
@@ -1293,6 +1316,15 @@
 战力：3700286
 觉醒券：505
 钻石：3174
+区评分排名：39
+战区排行：131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：3805683
+觉醒券：368
+钻石：1840
 区评分排名：39
 战区排行：131</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2203,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2291,7 +2323,7 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
@@ -2301,7 +2333,9 @@
       <c r="A7" s="1">
         <v>116</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L7" s="2" t="s">
         <v>56</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -810,6 +810,48 @@
           </rPr>
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
+强攻：8339.2y/1.7Wy
+敏攻：3460.5y/1174.6y
+控制：1545.8y/1338.3y
+防辅：903.7y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
 强攻：8339.2y/9596y
 敏攻：3460.5y/1174.6y
 控制：1545.8y/690.8y
@@ -818,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -839,23 +881,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
-悬赏伤害：
-强攻：4970.6y/503.6y
-敏攻：1.8wY/2949.2y
-控制：4919.5y/2773.5y
-防辅：3793.0y/4660.3y
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：8339.2y/9596y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
 </t>
         </r>
       </text>
@@ -886,7 +928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>天数</t>
   </si>
@@ -1327,6 +1369,24 @@
 钻石：1840
 区评分排名：39
 战区排行：131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：59
+战力：3817771
+觉醒券：383
+钻石：1715
+区评分排名：37
+战区排行：129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4011739
+觉醒券：430
+钻石：1287
+区评分排名：35
+战区排行：120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2235,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2334,7 +2394,7 @@
         <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>56</v>
@@ -2344,7 +2404,9 @@
       <c r="A8" s="1">
         <v>117</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
       </c>
@@ -2353,7 +2415,9 @@
       <c r="A9" s="1">
         <v>118</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -894,7 +894,7 @@
           </rPr>
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
-强攻：8339.2y/9596y
+强攻：9975.5y/9596y
 敏攻：3460.5y/1174.6y
 控制：1545.8y/690.8y
 防辅：903.7y/815.5y
@@ -919,6 +919,48 @@
 敏攻：1.8wY/4434.1y
 控制：4919.5y/2773.5y
 防辅：3793.0y/9401.5y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/9596y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/9596y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
 </t>
         </r>
       </text>
@@ -928,7 +970,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>天数</t>
   </si>
@@ -1385,6 +1427,24 @@
 战力：4011739
 觉醒券：430
 钻石：1287
+区评分排名：35
+战区排行：120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4134284
+觉醒券：458
+钻石：36
+区评分排名：35
+战区排行：122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4168872
+觉醒券：463
+钻石：727
 区评分排名：35
 战区排行：120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2295,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2416,24 +2476,28 @@
         <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>119</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>120</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -11,6 +11,7 @@
     <sheet name="PK" sheetId="4" r:id="rId2"/>
     <sheet name="101-110" sheetId="3" r:id="rId3"/>
     <sheet name="111-120" sheetId="5" r:id="rId4"/>
+    <sheet name="121-130" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -957,10 +958,230 @@
           </rPr>
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
-强攻：9975.5y/9596y
+强攻：9975.5y/1.26万y
 敏攻：3460.5y/1174.6y
 控制：1545.8y/690.8y
 防辅：903.7y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：6102.2y/2949.2y
+控制：1033.3y/2773.5y
+防辅：174.2y/4660.3y
+巅峰拿了30抽
+SP虎心愿30抽：1SP1金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/709.6y
+敏攻：1.8wY/4434.1y
+控制：4919.5y/2773.5y
+防辅：3793.0y/9401.5y
 </t>
         </r>
       </text>
@@ -970,7 +1191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>天数</t>
   </si>
@@ -1445,6 +1666,15 @@
 战力：4168872
 觉醒券：463
 钻石：727
+区评分排名：35
+战区排行：120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4186620
+觉醒券：465
+钻石：1241
 区评分排名：35
 战区排行：120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2356,7 +2586,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2496,8 +2726,232 @@
         <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="12" max="12" width="15.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>112</v>
+      </c>
+      <c r="B3"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>113</v>
+      </c>
+      <c r="B4"/>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>114</v>
+      </c>
+      <c r="B5"/>
+      <c r="L5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>115</v>
+      </c>
+      <c r="B6"/>
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>116</v>
+      </c>
+      <c r="B7"/>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>117</v>
+      </c>
+      <c r="B8"/>
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>118</v>
+      </c>
+      <c r="B9"/>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>119</v>
+      </c>
+      <c r="B10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>120</v>
+      </c>
+      <c r="B11"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -1039,6 +1039,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1191,7 +1212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>天数</t>
   </si>
@@ -1677,6 +1698,15 @@
 钻石：1241
 区评分排名：35
 战区排行：120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4322058
+觉醒券：468
+钻石：1780
+区评分排名：36
+战区排行：121</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1734,7 +1764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1750,6 +1780,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2585,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2734,7 +2767,9 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="6">
+        <v>44909</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2827,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2862,10 +2897,10 @@
     </row>
     <row r="2" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>49</v>
@@ -2876,9 +2911,11 @@
     </row>
     <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>112</v>
-      </c>
-      <c r="B3"/>
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2925,7 @@
     </row>
     <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B4"/>
       <c r="L4" s="2" t="s">
@@ -2897,7 +2934,7 @@
     </row>
     <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B5"/>
       <c r="L5" s="2" t="s">
@@ -2906,7 +2943,7 @@
     </row>
     <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B6"/>
       <c r="L6" s="2" t="s">
@@ -2915,7 +2952,7 @@
     </row>
     <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B7"/>
       <c r="L7" s="2" t="s">
@@ -2924,7 +2961,7 @@
     </row>
     <row r="8" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B8"/>
       <c r="L8" s="2" t="s">
@@ -2933,7 +2970,7 @@
     </row>
     <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B9"/>
       <c r="L9" s="2" t="s">
@@ -2942,14 +2979,14 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B11"/>
       <c r="L11"/>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1053,8 +1053,8 @@
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
 强攻：9975.5y/1.26万y
-敏攻：3460.5y/1174.6y
-控制：1545.8y/690.8y
+敏攻：7503.8y/1174.6y
+控制：1765.9y/690.8y
 防辅：903.7y/815.5y
 </t>
         </r>
@@ -1077,6 +1077,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
 </t>
         </r>
       </text>
@@ -1212,7 +1233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>天数</t>
   </si>
@@ -1707,6 +1728,15 @@
 钻石：1780
 区评分排名：36
 战区排行：121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4330781
+觉醒券：500
+钻石：1119
+区评分排名：35
+战区排行：117</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2862,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2914,7 +2944,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -2927,7 +2957,9 @@
       <c r="A4" s="1">
         <v>123</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>50</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1123,6 +1123,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1140,6 +1161,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：903.7y/815.5y
 </t>
         </r>
       </text>
@@ -1233,7 +1275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>天数</t>
   </si>
@@ -1737,6 +1779,24 @@
 钻石：1119
 区评分排名：35
 战区排行：117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4358629
+觉醒券：508
+钻石：1679
+区评分排名：35
+战区排行：117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4427591
+觉醒券：511
+钻石：2710
+区评分排名：35
+战区排行：115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2892,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2958,7 +3018,7 @@
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>50</v>
@@ -2968,7 +3028,9 @@
       <c r="A5" s="1">
         <v>124</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>53</v>
       </c>
@@ -2977,7 +3039,9 @@
       <c r="A6" s="1">
         <v>125</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1181,7 +1181,7 @@
 强攻：9975.5y/1.26万y
 敏攻：3460.5y/1174.6y
 控制：1545.8y/690.8y
-防辅：903.7y/815.5y
+防辅：1098.3y/815.5y
 </t>
         </r>
       </text>
@@ -1203,6 +1203,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：1098.3y/815.5y
 </t>
         </r>
       </text>
@@ -1275,7 +1296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>天数</t>
   </si>
@@ -1797,6 +1818,15 @@
 钻石：2710
 区评分排名：35
 战区排行：115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4452918
+觉醒券：514
+钻石：2826
+区评分排名：35
+战区排行：116</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2952,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3040,7 +3070,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
@@ -3050,7 +3080,9 @@
       <c r="A7" s="1">
         <v>126</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L7" s="2" t="s">
         <v>56</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1249,6 +1249,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/1174.6y
+控制：1545.8y/690.8y
+防辅：1098.3y/815.5y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L8" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1296,7 +1317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>天数</t>
   </si>
@@ -1827,6 +1848,15 @@
 钻石：2826
 区评分排名：35
 战区排行：116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4542687
+觉醒券：515
+钻石：2951
+区评分排名：34
+战区排行：114</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2982,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3081,7 +3111,7 @@
         <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>56</v>
@@ -3091,7 +3121,9 @@
       <c r="A8" s="1">
         <v>127</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1263,9 +1263,9 @@
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
 强攻：9975.5y/1.26万y
-敏攻：3460.5y/1174.6y
-控制：1545.8y/690.8y
-防辅：1098.3y/815.5y
+敏攻：3460.5y/3703.1y
+控制：1545.8y/1678.1y
+防辅：1098.3y/2788.9y
 </t>
         </r>
       </text>
@@ -1287,6 +1287,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/3703.1y
+控制：1545.8y/1678.1y
+防辅：1098.3y/2788.9y
 </t>
         </r>
       </text>
@@ -1317,7 +1338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>天数</t>
   </si>
@@ -1855,6 +1876,15 @@
 战力：4542687
 觉醒券：515
 钻石：2951
+区评分排名：34
+战区排行：114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：4686405
+觉醒券：517
+钻石：2692
 区评分排名：34
 战区排行：114</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3012,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3122,7 +3152,7 @@
         <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
@@ -3132,7 +3162,9 @@
       <c r="A9" s="1">
         <v>128</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1333,12 +1333,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/3703.1y
+控制：1545.8y/1678.1y
+防辅：1098.3y/2788.9y
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>天数</t>
   </si>
@@ -1887,6 +1908,15 @@
 钻石：2692
 区评分排名：34
 战区排行：114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：5004540
+觉醒券：518
+钻石：2867
+区评分排名：30
+战区排行：104</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3042,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3163,17 +3193,19 @@
         <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>129</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -12,6 +12,7 @@
     <sheet name="101-110" sheetId="3" r:id="rId3"/>
     <sheet name="111-120" sheetId="5" r:id="rId4"/>
     <sheet name="121-130" sheetId="6" r:id="rId5"/>
+    <sheet name="131-140" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1354,12 +1355,253 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/3703.1y
+控制：1545.8y/1678.1y
+防辅：1098.3y/2788.9y
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/3703.1y
+控制：1545.8y/1678.1y
+防辅：1098.3y/2788.9y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：6102.2y/2949.2y
+控制：1033.3y/2773.5y
+防辅：174.2y/4660.3y
+巅峰拿了30抽
+SP虎心愿30抽：1SP1金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/709.6y
+敏攻：1.8wY/4434.1y
+控制：4919.5y/2773.5y
+防辅：3793.0y/9401.5y
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
   <si>
     <t>天数</t>
   </si>
@@ -1915,6 +2157,24 @@
 战力：5004540
 觉醒券：518
 钻石：2867
+区评分排名：30
+战区排行：104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：5018556
+觉醒券：519
+钻石：2902
+区评分排名：30
+战区排行：104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：5127833
+觉醒券：522
+钻石：1515
 区评分排名：30
 战区排行：104</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3072,8 +3332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3204,22 +3464,250 @@
         <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>130</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="6">
+        <v>44919</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="12" max="12" width="15.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>131</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>132</v>
+      </c>
+      <c r="B3"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>133</v>
+      </c>
+      <c r="B4"/>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>134</v>
+      </c>
+      <c r="B5"/>
+      <c r="L5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>135</v>
+      </c>
+      <c r="B6"/>
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>136</v>
+      </c>
+      <c r="B7"/>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>137</v>
+      </c>
+      <c r="B8"/>
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>138</v>
+      </c>
+      <c r="B9"/>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>139</v>
+      </c>
+      <c r="B10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>140</v>
+      </c>
+      <c r="B11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -1449,6 +1449,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/3703.1y
+控制：1545.8y/1678.1y
+防辅：1098.3y/2788.9y
+SP唐晨153抽8金：唐月华、2邪月
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1601,7 +1623,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
   <si>
     <t>天数</t>
   </si>
@@ -2177,6 +2199,19 @@
 钻石：1515
 区评分排名：30
 战区排行：104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：5273063
+觉醒券：523
+钻石：1627
+区评分排名：31
+战区排行：105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">唐晨返厂12/26 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2234,7 +2269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2253,6 +2288,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3332,7 +3370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3576,15 +3614,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="7" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="2"/>
@@ -3614,7 +3652,7 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>49</v>
@@ -3627,9 +3665,11 @@
       <c r="A3" s="1">
         <v>132</v>
       </c>
-      <c r="B3"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>47</v>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1464,8 +1464,8 @@
 悬赏伤害：
 强攻：9975.5y/1.26万y
 敏攻：3460.5y/3703.1y
-控制：1545.8y/1678.1y
-防辅：1098.3y/2788.9y
+控制：1835.9y/1678.1y
+防辅：1766y/2788.9y
 SP唐晨153抽8金：唐月华、2邪月
 </t>
         </r>
@@ -1492,6 +1492,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.26万y
+敏攻：3460.5y/3703.1y
+控制：1835.9y/1678.1y
+防辅：1766y/2788.9y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1513,6 +1534,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.92万y
+敏攻：3460.5y/3703.1y
+控制：1835.9y/1678.1y
+防辅：1766y/2788.9y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1530,6 +1572,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.92万y
+敏攻：3460.5y/3703.1y
+控制：1835.9y/1678.1y
+防辅：1766y/2788.9y
 </t>
         </r>
       </text>
@@ -1623,7 +1686,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>天数</t>
   </si>
@@ -2211,7 +2274,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">唐晨返厂12/26 </t>
+    <t xml:space="preserve">1、唐晨返厂12/26
+2、琼台玉阁（素风炉、琼玉葫芦） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：5461052
+觉醒券：369
+钻石：1034
+区评分排名：29
+战区排行：97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：5503299
+觉醒券：374
+钻石：1245
+区评分排名：29
+战区排行：99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：5549020
+觉醒券：376
+钻石：1914
+区评分排名：29
+战区排行：99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3614,8 +3705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3666,7 +3757,7 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>82</v>
@@ -3679,7 +3770,9 @@
       <c r="A4" s="1">
         <v>133</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>50</v>
       </c>
@@ -3688,7 +3781,9 @@
       <c r="A5" s="1">
         <v>134</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>53</v>
       </c>
@@ -3697,7 +3792,9 @@
       <c r="A6" s="1">
         <v>135</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1618,6 +1618,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.92万y
+敏攻：3460.5y/3703.1y
+控制：1835.9y/1678.1y
+防辅：1766y/2788.9y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1686,7 +1707,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>天数</t>
   </si>
@@ -2303,6 +2324,15 @@
 钻石：1914
 区评分排名：29
 战区排行：99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：60
+战力：5581354
+觉醒券：407
+钻石：77
+区评分排名：22
+战区排行：76</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3705,8 +3735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3793,7 +3823,7 @@
         <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
@@ -3803,7 +3833,9 @@
       <c r="A7" s="1">
         <v>136</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L7" s="2" t="s">
         <v>56</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1633,7 +1633,7 @@
 悬赏伤害：
 强攻：9975.5y/1.92万y
 敏攻：3460.5y/3703.1y
-控制：1835.9y/1678.1y
+控制：1854.5y/1678.1y
 防辅：1766y/2788.9y
 </t>
         </r>
@@ -1656,6 +1656,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.92万y
+敏攻：3460.5y/3703.1y
+控制：1854.5y/1678.1y
+防辅：1766y/2788.9y
 </t>
         </r>
       </text>
@@ -1707,7 +1728,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
   <si>
     <t>天数</t>
   </si>
@@ -2333,6 +2354,15 @@
 钻石：77
 区评分排名：22
 战区排行：76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：5645704
+觉醒券：410
+钻石：231
+区评分排名：23
+战区排行：79</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3735,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3834,7 +3864,7 @@
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>56</v>
@@ -3844,7 +3874,9 @@
       <c r="A8" s="1">
         <v>137</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1702,6 +1702,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：9975.5y/1.92万y
+敏攻：3460.5y/3703.1y
+控制：1854.5y/1678.1y
+防辅：1766y/2788.9y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1728,7 +1749,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
   <si>
     <t>天数</t>
   </si>
@@ -2363,6 +2384,15 @@
 钻石：231
 区评分排名：23
 战区排行：79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：5744439
+觉醒券：415
+钻石：755
+区评分排名：23
+战区排行：78</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3875,7 +3905,7 @@
         <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
@@ -3885,7 +3915,9 @@
       <c r="A9" s="1">
         <v>138</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1715,7 +1715,7 @@
           </rPr>
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
-强攻：9975.5y/1.92万y
+强攻：9975.5y/8.02万y
 敏攻：3460.5y/3703.1y
 控制：1854.5y/1678.1y
 防辅：1766y/2788.9y
@@ -1740,6 +1740,50 @@
 敏攻：1.8wY/4434.1y
 控制：4919.5y/2773.5y
 防辅：3793.0y/9401.5y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.02万亿
+敏攻：3460.5亿/3703.1亿
+控制：1854.5亿/1678.1亿
+防辅：3718.1亿/2788.9亿
+SP唐晨153抽+26抽（1SP）
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.02万亿
+敏攻：3460.5亿/3703.1亿
+控制：1854.5亿/1678.1亿
+防辅：3718.1亿/2788.9亿
+SP唐晨153抽+26抽（1SP）
 </t>
         </r>
       </text>
@@ -1749,7 +1793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t>天数</t>
   </si>
@@ -2393,6 +2437,24 @@
 钻石：755
 区评分排名：23
 战区排行：78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6001728
+觉醒券：440
+钻石：290
+区评分排名：25
+战区排行：79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6144616
+觉醒券：437
+钻石：304
+区评分排名：25
+战区排行：80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3795,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3916,31 +3978,37 @@
         <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>139</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>140</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5">
+        <v>44929</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="111-120" sheetId="5" r:id="rId4"/>
     <sheet name="121-130" sheetId="6" r:id="rId5"/>
     <sheet name="131-140" sheetId="7" r:id="rId6"/>
+    <sheet name="141-150" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1783,7 +1784,226 @@
 敏攻：3460.5亿/3703.1亿
 控制：1854.5亿/1678.1亿
 防辅：3718.1亿/2788.9亿
-SP唐晨153抽+26抽（1SP）
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.02万亿
+敏攻：3460.5亿/3703.1亿
+控制：1854.5亿/1678.1亿
+防辅：3718.1亿/2788.9亿
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：6102.2y/2949.2y
+控制：1033.3y/2773.5y
+防辅：174.2y/4660.3y
+巅峰拿了30抽
+SP虎心愿30抽：1SP1金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/709.6y
+敏攻：1.8wY/4434.1y
+控制：4919.5y/2773.5y
+防辅：3793.0y/9401.5y
 </t>
         </r>
       </text>
@@ -1793,7 +2013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>天数</t>
   </si>
@@ -2455,6 +2675,15 @@
 钻石：304
 区评分排名：25
 战区排行：80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6363541
+觉醒券：457
+钻石：51
+区评分排名：27
+战区排行：81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3857,8 +4086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3998,7 +4227,7 @@
         <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L11"/>
     </row>
@@ -4009,6 +4238,228 @@
       <c r="B12" s="5">
         <v>44929</v>
       </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="12" max="12" width="15.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>131</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>132</v>
+      </c>
+      <c r="B3"/>
+      <c r="D3"/>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>133</v>
+      </c>
+      <c r="B4"/>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>134</v>
+      </c>
+      <c r="B5"/>
+      <c r="L5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>135</v>
+      </c>
+      <c r="B6"/>
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>136</v>
+      </c>
+      <c r="B7"/>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>137</v>
+      </c>
+      <c r="B8"/>
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>138</v>
+      </c>
+      <c r="B9"/>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>139</v>
+      </c>
+      <c r="B10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>140</v>
+      </c>
+      <c r="B11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1811,7 +1811,7 @@
           </rPr>
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
-强攻：4.41万亿/8.02万亿
+强攻：4.41万亿/8.49万亿
 敏攻：3460.5亿/3703.1亿
 控制：1854.5亿/1678.1亿
 防辅：3718.1亿/2788.9亿
@@ -1861,6 +1861,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3703.1亿
+控制：1854.5亿/1678.1亿
+防辅：3718.1亿/2788.9亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2013,7 +2034,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t>天数</t>
   </si>
@@ -2684,6 +2705,15 @@
 钻石：51
 区评分排名：27
 战区排行：81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6415194
+觉醒券：469
+钻石：184
+区评分排名：27
+战区排行：82</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4368,7 +4398,7 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>49</v>
@@ -4381,7 +4411,9 @@
       <c r="A3" s="1">
         <v>132</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D3"/>
       <c r="L3" s="2" t="s">
         <v>47</v>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -1903,6 +1903,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3703.1亿
+控制：3862.7亿/1678.1亿
+防辅：3718.1亿/2788.9亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1920,6 +1941,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3703.1亿
+控制：3862.7亿/1678.1亿
+防辅：3718.1亿/2788.9亿
 </t>
         </r>
       </text>
@@ -2034,7 +2076,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
   <si>
     <t>天数</t>
   </si>
@@ -2714,6 +2756,24 @@
 钻石：184
 区评分排名：27
 战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6449380
+觉醒券：475
+钻石：430
+区评分排名：27
+战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6518667
+觉醒券：482
+钻石：562
+区评分排名：26
+战区排行：81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4360,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4412,7 +4472,7 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D3"/>
       <c r="L3" s="2" t="s">
@@ -4423,7 +4483,9 @@
       <c r="A4" s="1">
         <v>133</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>50</v>
       </c>
@@ -4432,7 +4494,9 @@
       <c r="A5" s="1">
         <v>134</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>53</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="131-140" sheetId="7" r:id="rId6"/>
     <sheet name="141-150" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1987,6 +1987,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3703.1亿
+控制：3862.7亿/1678.1亿
+防辅：3718.1亿/4108.6亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2008,6 +2029,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3703.1亿
+控制：3862.7亿/1678.1亿
+防辅：3718.1亿/4108.6亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2025,6 +2067,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3703.1亿
+控制：3862.7亿/1678.1亿
+防辅：3718.1亿/4108.6亿
 </t>
         </r>
       </text>
@@ -2076,7 +2139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
   <si>
     <t>天数</t>
   </si>
@@ -2773,6 +2836,33 @@
 觉醒券：482
 钻石：562
 区评分排名：26
+战区排行：81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6583472
+觉醒券：484
+钻石：763
+区评分排名：26
+战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6726164
+觉醒券：492
+钻石：1603
+区评分排名：25
+战区排行：79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6776166
+觉醒券：503
+钻石：1526
+区评分排名：25
 战区排行：81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4420,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4495,7 +4585,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>53</v>
@@ -4505,7 +4595,9 @@
       <c r="A6" s="1">
         <v>135</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
       </c>
@@ -4514,7 +4606,10 @@
       <c r="A7" s="1">
         <v>136</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="7"/>
       <c r="L7" s="2" t="s">
         <v>56</v>
       </c>
@@ -4523,7 +4618,9 @@
       <c r="A8" s="1">
         <v>137</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -2113,6 +2113,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3703.1亿
+控制：3862.7亿/1678.1亿
+防辅：3718.1亿/4108.6亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2139,7 +2160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
   <si>
     <t>天数</t>
   </si>
@@ -2862,6 +2883,15 @@
 战力：6776166
 觉醒券：503
 钻石：1526
+区评分排名：25
+战区排行：81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6802565
+觉醒券：514
+钻石：1572
 区评分排名：25
 战区排行：81</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4510,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4619,7 +4649,7 @@
         <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
@@ -4629,7 +4659,9 @@
       <c r="A9" s="1">
         <v>138</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -2127,8 +2127,8 @@
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
 强攻：4.41万亿/8.49万亿
-敏攻：3460.5亿/3703.1亿
-控制：3862.7亿/1678.1亿
+敏攻：3460.5亿/3818.6亿
+控制：3862.7亿/2256.1亿
 防辅：3718.1亿/4108.6亿
 </t>
         </r>
@@ -2160,7 +2160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
   <si>
     <t>天数</t>
   </si>
@@ -2894,6 +2894,15 @@
 钻石：1572
 区评分排名：25
 战区排行：81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：6807831
+觉醒券：525
+钻石：1495
+区评分排名：25
+战区排行：82</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4540,8 +4549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4660,17 +4669,19 @@
         <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>139</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -2160,7 +2160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>天数</t>
   </si>
@@ -2903,6 +2903,15 @@
 钻石：1495
 区评分排名：25
 战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：61
+战力：7075356
+觉醒券：546
+钻石：2696
+区评分排名：23
+战区排行：71</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2960,7 +2969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2983,6 +2992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4549,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4584,7 +4594,7 @@
     </row>
     <row r="2" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>92</v>
@@ -4598,7 +4608,7 @@
     </row>
     <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>93</v>
@@ -4610,7 +4620,7 @@
     </row>
     <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>94</v>
@@ -4621,7 +4631,7 @@
     </row>
     <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>95</v>
@@ -4632,7 +4642,7 @@
     </row>
     <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>96</v>
@@ -4643,7 +4653,7 @@
     </row>
     <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>97</v>
@@ -4655,7 +4665,7 @@
     </row>
     <row r="8" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>98</v>
@@ -4666,7 +4676,7 @@
     </row>
     <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>99</v>
@@ -4677,25 +4687,29 @@
     </row>
     <row r="10" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>140</v>
-      </c>
-      <c r="B11"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" s="8">
+        <v>44939</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="121-130" sheetId="6" r:id="rId5"/>
     <sheet name="131-140" sheetId="7" r:id="rId6"/>
     <sheet name="141-150" sheetId="8" r:id="rId7"/>
+    <sheet name="151-160" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2155,12 +2156,296 @@
         </r>
       </text>
     </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3818.6亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/4108.6亿
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3818.6亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/4108.6亿
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3818.6亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/4108.6亿
+SP比比东90抽：1SP、3SSR
+3SSR盒子：佘龙、梦神机、海龙</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：6102.2y/2949.2y
+控制：1033.3y/2773.5y
+防辅：174.2y/4660.3y
+巅峰拿了30抽
+SP虎心愿30抽：1SP1金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/3818.6亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/4108.6亿
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/709.6y
+敏攻：1.8wY/4434.1y
+控制：4919.5y/2773.5y
+防辅：3793.0y/9401.5y
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>天数</t>
   </si>
@@ -2906,12 +3191,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：61
+    <t>等级：62
 战力：7075356
 觉醒券：546
 钻石：2696
 区评分排名：23
 战区排行：71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：7168168
+觉醒券：550
+钻石：3189
+区评分排名：26
+战区排行：79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：7298283
+觉醒券：463
+钻石：3730
+区评分排名：26
+战区排行：81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4559,8 +4866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4699,7 +5006,7 @@
         <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="L11"/>
     </row>
@@ -4709,6 +5016,233 @@
       </c>
       <c r="B12" s="8">
         <v>44939</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="12" max="12" width="15.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>152</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3"/>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>153</v>
+      </c>
+      <c r="B4"/>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>154</v>
+      </c>
+      <c r="B5"/>
+      <c r="L5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>155</v>
+      </c>
+      <c r="B6"/>
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>156</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="7"/>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>157</v>
+      </c>
+      <c r="B8"/>
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>158</v>
+      </c>
+      <c r="B9"/>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>159</v>
+      </c>
+      <c r="B10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>160</v>
+      </c>
+      <c r="B11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="L12" s="2"/>
     </row>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -2286,7 +2286,7 @@
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
 强攻：4.41万亿/8.49万亿
-敏攻：3460.5亿/3818.6亿
+敏攻：3460.5亿/4015.8亿
 控制：3862.7亿/2256.1亿
 防辅：3718.1亿/4108.6亿
 </t>
@@ -2310,6 +2310,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/4108.6亿
 </t>
         </r>
       </text>
@@ -2445,7 +2466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
   <si>
     <t>天数</t>
   </si>
@@ -3218,6 +3239,15 @@
 觉醒券：463
 钻石：3730
 区评分排名：26
+战区排行：81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：7348864
+觉醒券：465
+钻石：4382
+区评分排名：25
 战区排行：81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5110,7 +5140,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5161,7 +5191,7 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D3"/>
       <c r="L3" s="2" t="s">
@@ -5172,7 +5202,9 @@
       <c r="A4" s="1">
         <v>153</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>50</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -2356,6 +2356,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/4108.6亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2373,6 +2394,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/8.49万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/4108.6亿
 </t>
         </r>
       </text>
@@ -2466,7 +2508,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t>天数</t>
   </si>
@@ -3249,6 +3291,24 @@
 钻石：4382
 区评分排名：25
 战区排行：81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：7465499
+觉醒券：465
+钻石：4899
+区评分排名：27
+战区排行：83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：7651696
+觉醒券：484
+钻石：5377
+区评分排名：27
+战区排行：82</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5139,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5203,7 +5263,7 @@
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>50</v>
@@ -5213,7 +5273,9 @@
       <c r="A5" s="1">
         <v>154</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>53</v>
       </c>
@@ -5222,7 +5284,9 @@
       <c r="A6" s="1">
         <v>155</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -2411,10 +2411,10 @@
           </rPr>
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
-强攻：4.41万亿/8.49万亿
+强攻：4.41万亿/9.64万亿
 敏攻：3460.5亿/4015.8亿
 控制：3862.7亿/2256.1亿
-防辅：3718.1亿/4108.6亿
+防辅：3718.1亿/5233.8亿
 </t>
         </r>
       </text>
@@ -2436,6 +2436,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/9.64万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
 </t>
         </r>
       </text>
@@ -2508,7 +2529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
   <si>
     <t>天数</t>
   </si>
@@ -3307,6 +3328,15 @@
 战力：7651696
 觉醒券：484
 钻石：5377
+区评分排名：27
+战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：7766362
+觉醒券：485
+钻石：5522
 区评分排名：27
 战区排行：82</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5199,8 +5229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5285,7 +5315,7 @@
         <v>155</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
@@ -5295,7 +5325,9 @@
       <c r="A7" s="1">
         <v>156</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="L7" s="2" t="s">
         <v>56</v>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -2482,6 +2482,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/9.64万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L8" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2503,6 +2524,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/9.64万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2520,6 +2562,48 @@
 敏攻：1.8wY/4434.1y
 控制：4919.5y/2773.5y
 防辅：3793.0y/9401.5y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/9.64万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/9.64万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
 </t>
         </r>
       </text>
@@ -2529,7 +2613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
   <si>
     <t>天数</t>
   </si>
@@ -3339,6 +3423,42 @@
 钻石：5522
 区评分排名：27
 战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：7801842
+觉醒券：486
+钻石：6322
+区评分排名：27
+战区排行：83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：8016275
+觉醒券：491
+钻石：6487
+区评分排名：27
+战区排行：85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：8046244
+觉醒券：489
+钻石：6996
+区评分排名：27
+战区排行：85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：8049404
+觉醒券：488
+钻石：8605
+区评分排名：27
+战区排行：85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5229,8 +5349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5326,7 +5446,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C7" s="7"/>
       <c r="L7" s="2" t="s">
@@ -5337,7 +5457,9 @@
       <c r="A8" s="1">
         <v>157</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
       </c>
@@ -5346,23 +5468,29 @@
       <c r="A9" s="1">
         <v>158</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>159</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>160</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -15,6 +15,7 @@
     <sheet name="131-140" sheetId="7" r:id="rId6"/>
     <sheet name="141-150" sheetId="8" r:id="rId7"/>
     <sheet name="151-160" sheetId="9" r:id="rId8"/>
+    <sheet name="161-170" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2612,8 +2613,228 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/9.64万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：6102.2y/2949.2y
+控制：1033.3y/2773.5y
+防辅：174.2y/4660.3y
+巅峰拿了30抽
+SP虎心愿30抽：1SP1金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/709.6y
+敏攻：1.8wY/4434.1y
+控制：4919.5y/2773.5y
+防辅：3793.0y/9401.5y
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
   <si>
     <t>天数</t>
   </si>
@@ -5350,7 +5571,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5489,8 +5710,233 @@
         <v>160</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="12" max="12" width="15.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>161</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>162</v>
+      </c>
+      <c r="B3"/>
+      <c r="D3"/>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>163</v>
+      </c>
+      <c r="B4"/>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>164</v>
+      </c>
+      <c r="B5"/>
+      <c r="L5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>165</v>
+      </c>
+      <c r="B6"/>
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>166</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="7"/>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>167</v>
+      </c>
+      <c r="B8"/>
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>168</v>
+      </c>
+      <c r="B9"/>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>169</v>
+      </c>
+      <c r="B10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>170</v>
+      </c>
+      <c r="B11"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -2682,6 +2682,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/9.64万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2834,7 +2855,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
   <si>
     <t>天数</t>
   </si>
@@ -3680,6 +3701,15 @@
 钻石：8605
 区评分排名：27
 战区排行：85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：8548450
+觉醒券：515
+钻石：1w
+区评分排名：27
+战区排行：86</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5570,7 +5600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5813,7 +5843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5851,7 +5881,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>48</v>
@@ -5864,7 +5894,9 @@
       <c r="A3" s="1">
         <v>162</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D3"/>
       <c r="L3" s="2" t="s">
         <v>47</v>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -2695,7 +2695,7 @@
           </rPr>
           <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
 悬赏伤害：
-强攻：4.41万亿/9.64万亿
+强攻：4.41万亿/10.6万亿
 敏攻：3460.5亿/4015.8亿
 控制：3862.7亿/2256.1亿
 防辅：3718.1亿/5233.8亿
@@ -2720,6 +2720,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/10.6万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
 </t>
         </r>
       </text>
@@ -2855,7 +2876,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="114">
   <si>
     <t>天数</t>
   </si>
@@ -3710,6 +3731,15 @@
 钻石：1w
 区评分排名：27
 战区排行：86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：8574423
+觉醒券：514
+钻石：1.1w
+区评分排名：27
+战区排行：82</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5843,8 +5873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5895,7 +5925,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="D3"/>
       <c r="L3" s="2" t="s">
@@ -5906,7 +5936,9 @@
       <c r="A4" s="1">
         <v>163</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>50</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -2766,6 +2766,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/10.6万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2787,6 +2808,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/10.6万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2808,6 +2850,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/10.6万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2825,6 +2888,27 @@
 敏攻：1.8wY/2949.2y
 控制：4919.5y/2773.5y
 防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/10.6万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
 </t>
         </r>
       </text>
@@ -2876,7 +2960,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
   <si>
     <t>天数</t>
   </si>
@@ -3740,6 +3824,51 @@
 钻石：1.1w
 区评分排名：27
 战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：8606814
+觉醒券：515
+钻石：1.2w
+区评分排名：27
+战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：8606814
+觉醒券：513
+钻石：1.2w
+区评分排名：27
+战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：62
+战力：8610739
+觉醒券：529
+钻石：1.9w
+区评分排名：27
+战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：63
+战力：9256162
+觉醒券：539
+钻石：2w
+区评分排名：26
+战区排行：81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5873,8 +6002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5937,7 +6066,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>50</v>
@@ -5947,7 +6076,9 @@
       <c r="A5" s="1">
         <v>164</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>53</v>
       </c>
@@ -5956,7 +6087,9 @@
       <c r="A6" s="1">
         <v>165</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
       </c>
@@ -5965,7 +6098,9 @@
       <c r="A7" s="1">
         <v>166</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="L7" s="2" t="s">
         <v>56</v>
@@ -5975,7 +6110,9 @@
       <c r="A8" s="1">
         <v>167</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -2934,6 +2934,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/10.6万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2960,7 +2981,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="120">
   <si>
     <t>天数</t>
   </si>
@@ -3854,6 +3875,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等级：63
+战力：9256162
+觉醒券：539
+钻石：2w
+区评分排名：26
+战区排行：81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>等级：
 战力：
 觉醒券：
@@ -3864,11 +3894,11 @@
   </si>
   <si>
     <t>等级：63
-战力：9256162
+战力：9288585
 觉醒券：539
 钻石：2w
-区评分排名：26
-战区排行：81</t>
+区评分排名：27
+战区排行：82</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6003,7 +6033,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6099,7 +6129,7 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="7"/>
       <c r="L7" s="2" t="s">
@@ -6111,7 +6141,7 @@
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
@@ -6121,7 +6151,9 @@
       <c r="A9" s="1">
         <v>168</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>

--- a/魂录2.xlsx
+++ b/魂录2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="141-150" sheetId="8" r:id="rId7"/>
     <sheet name="151-160" sheetId="9" r:id="rId8"/>
     <sheet name="161-170" sheetId="11" r:id="rId9"/>
+    <sheet name="171-180" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2976,12 +2977,295 @@
         </r>
       </text>
     </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/10.6万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/10.6万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/10.6万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：6102.2y/2949.2y
+控制：1033.3y/2773.5y
+防辅：174.2y/4660.3y
+巅峰拿了30抽
+SP虎心愿30抽：1SP1金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+海马+波波+海女+风致+小白
+悬赏伤害：
+强攻：4.41万亿/10.6万亿
+敏攻：3460.5亿/4015.8亿
+控制：3862.7亿/2256.1亿
+防辅：3718.1亿/5233.8亿
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/503.6y
+敏攻：1.8wY/2949.2y
+控制：4919.5y/2773.5y
+防辅：3793.0y/4660.3y
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：sp虎+老虎+猫+荣荣+海马+奥斯卡
+悬赏伤害：
+强攻：4970.6y/709.6y
+敏攻：1.8wY/4434.1y
+控制：4919.5y/2773.5y
+防辅：3793.0y/9401.5y
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="126">
   <si>
     <t>天数</t>
   </si>
@@ -3884,6 +4168,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等级：63
+战力：9288585
+觉醒券：539
+钻石：2w
+区评分排名：27
+战区排行：82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：63
+战力：1010w
+觉醒券：551
+钻石：1.2w
+区评分排名：27
+战区排行：83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：63
+战力：1010w
+觉醒券：551
+钻石：1.2w
+区评分排名：27
+战区排行：84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：63
+战力：1011w
+觉醒券：551
+钻石：1.2w
+区评分排名：27
+战区排行：84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：63
+战力：1011w
+觉醒券：550
+钻石：1.2w
+区评分排名：27
+战区排行：84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>等级：
 战力：
 觉醒券：
@@ -3894,11 +4227,11 @@
   </si>
   <si>
     <t>等级：63
-战力：9288585
-觉醒券：539
-钻石：2w
-区评分排名：27
-战区排行：82</t>
+战力：1069w
+觉醒券：
+钻石：
+区评分排名：
+战区排行：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4457,6 +4790,237 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="12" max="12" width="15.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>172</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3"/>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>173</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>174</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>175</v>
+      </c>
+      <c r="B6"/>
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>176</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="7"/>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>177</v>
+      </c>
+      <c r="B8"/>
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>178</v>
+      </c>
+      <c r="B9"/>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>179</v>
+      </c>
+      <c r="B10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>180</v>
+      </c>
+      <c r="B11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
@@ -6032,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6141,7 +6705,7 @@
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>59</v>
@@ -6158,26 +6722,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>169</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>170</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>101</v>
+      <c r="B12" s="8">
+        <v>44959</v>
       </c>
       <c r="L12" s="2"/>
     </row>
